--- a/runs/run350/NotionalETEOutput350.xlsx
+++ b/runs/run350/NotionalETEOutput350.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX3_State_Update</t>
+    <t>Missile_SOMERSAULT3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3_353.MISSILE_ANGERMAX3_353</t>
+    <t>MISSILE_SOMERSAULT3_419.MISSILE_SOMERSAULT3_419</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3</t>
+    <t>MISSILE_SOMERSAULT3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1573.941702569488</v>
+        <v>-1451.407602881475</v>
       </c>
       <c r="J2">
-        <v>1910.078026156413</v>
+        <v>2050.996799679195</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1532.735022719017</v>
+        <v>-1487.832523341443</v>
       </c>
       <c r="J3">
-        <v>1999.415455430849</v>
+        <v>1977.132585956211</v>
       </c>
       <c r="K3">
-        <v>315.9930818149338</v>
+        <v>301.0900061763816</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1416.703199514834</v>
+        <v>-1394.169136552655</v>
       </c>
       <c r="J4">
-        <v>1816.051488454116</v>
+        <v>1904.752650916457</v>
       </c>
       <c r="K4">
-        <v>589.8066532074863</v>
+        <v>601.0225542269482</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1381.688420613003</v>
+        <v>-1445.613900436982</v>
       </c>
       <c r="J5">
-        <v>1928.03664247119</v>
+        <v>1865.773823101993</v>
       </c>
       <c r="K5">
-        <v>823.0139337171539</v>
+        <v>898.7095053987347</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1379.303608751946</v>
+        <v>-1372.48784324338</v>
       </c>
       <c r="J6">
-        <v>1752.509618730865</v>
+        <v>1870.815235916678</v>
       </c>
       <c r="K6">
-        <v>1076.830639551834</v>
+        <v>1165.300196580223</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1340.089880770961</v>
+        <v>-1283.376987248849</v>
       </c>
       <c r="J7">
-        <v>1788.2046864736</v>
+        <v>1810.327847459059</v>
       </c>
       <c r="K7">
-        <v>1371.909528082319</v>
+        <v>1429.939496326711</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1344.774863602425</v>
+        <v>-1317.319434591638</v>
       </c>
       <c r="J8">
-        <v>1715.122502992389</v>
+        <v>1754.181708376202</v>
       </c>
       <c r="K8">
-        <v>1557.37734831932</v>
+        <v>1567.552374870841</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.8413049759477</v>
+        <v>-99.48244409327462</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1229.851758889373</v>
+        <v>-1233.44283195601</v>
       </c>
       <c r="J9">
-        <v>1721.631722689737</v>
+        <v>1621.217784737262</v>
       </c>
       <c r="K9">
-        <v>1830.261002608186</v>
+        <v>1885.106434637075</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>227.1915603125794</v>
+        <v>215.4463729788839</v>
       </c>
       <c r="G10">
-        <v>-79.51830367763478</v>
+        <v>-83.29459508957302</v>
       </c>
       <c r="H10">
-        <v>818.8871033302123</v>
+        <v>892.6540944805624</v>
       </c>
       <c r="I10">
-        <v>-1189.51377353157</v>
+        <v>-1205.103213521519</v>
       </c>
       <c r="J10">
-        <v>1535.667769605247</v>
+        <v>1603.234685044517</v>
       </c>
       <c r="K10">
-        <v>1965.317328954042</v>
+        <v>2100.096733367979</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>168.9925141427453</v>
+        <v>173.9765943218713</v>
       </c>
       <c r="G11">
-        <v>-69.83644042793135</v>
+        <v>-69.62214867018469</v>
       </c>
       <c r="H11">
-        <v>1098.189205991062</v>
+        <v>1050.695172188348</v>
       </c>
       <c r="I11">
-        <v>-1227.261754225932</v>
+        <v>-1228.320802596533</v>
       </c>
       <c r="J11">
-        <v>1498.607214871545</v>
+        <v>1519.548111301205</v>
       </c>
       <c r="K11">
-        <v>2283.396812975673</v>
+        <v>2122.162638782697</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>140.3757390944896</v>
+        <v>142.4311472938694</v>
       </c>
       <c r="G12">
-        <v>-49.13399561884055</v>
+        <v>-50.47135561423539</v>
       </c>
       <c r="H12">
-        <v>1118.508036235611</v>
+        <v>1120.55172536644</v>
       </c>
       <c r="I12">
-        <v>-1208.437708972122</v>
+        <v>-1118.019880454774</v>
       </c>
       <c r="J12">
-        <v>1460.064861996526</v>
+        <v>1502.642833992906</v>
       </c>
       <c r="K12">
-        <v>2462.634290813774</v>
+        <v>2412.425713954849</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.2644255688072</v>
+        <v>122.5868266698064</v>
       </c>
       <c r="G13">
-        <v>-34.94924853738692</v>
+        <v>-33.51232275409181</v>
       </c>
       <c r="H13">
-        <v>1280.8283752958</v>
+        <v>1198.851037540967</v>
       </c>
       <c r="I13">
-        <v>-1180.451759100375</v>
+        <v>-1173.344204034411</v>
       </c>
       <c r="J13">
-        <v>1472.02575435324</v>
+        <v>1426.7689442552</v>
       </c>
       <c r="K13">
-        <v>2590.856992997529</v>
+        <v>2452.011461859002</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.7534627476747</v>
+        <v>110.8850520324238</v>
       </c>
       <c r="G14">
-        <v>-17.15819739170016</v>
+        <v>-17.86091373665659</v>
       </c>
       <c r="H14">
-        <v>1388.106289273166</v>
+        <v>1269.275428633505</v>
       </c>
       <c r="I14">
-        <v>-1062.844360927458</v>
+        <v>-1087.285935219806</v>
       </c>
       <c r="J14">
-        <v>1467.698499825219</v>
+        <v>1458.087630651996</v>
       </c>
       <c r="K14">
-        <v>2746.520391103515</v>
+        <v>2757.602799308358</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.9677617004059</v>
+        <v>104.5261936093209</v>
       </c>
       <c r="G15">
-        <v>-0.8960178783174246</v>
+        <v>-0.9520277487139216</v>
       </c>
       <c r="H15">
-        <v>1389.940376357192</v>
+        <v>1353.635874742563</v>
       </c>
       <c r="I15">
-        <v>-1101.682133235109</v>
+        <v>-1097.881386250012</v>
       </c>
       <c r="J15">
-        <v>1350.856550985291</v>
+        <v>1413.089536319701</v>
       </c>
       <c r="K15">
-        <v>2850.792477601587</v>
+        <v>2862.495969224225</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.80079833400256</v>
+        <v>92.8595530955952</v>
       </c>
       <c r="G16">
-        <v>15.64781085037987</v>
+        <v>15.0744370198843</v>
       </c>
       <c r="H16">
-        <v>1402.409192481258</v>
+        <v>1466.991794697682</v>
       </c>
       <c r="I16">
-        <v>-1056.755655775752</v>
+        <v>-998.0895492589603</v>
       </c>
       <c r="J16">
-        <v>1339.31265759662</v>
+        <v>1307.165050644448</v>
       </c>
       <c r="K16">
-        <v>2852.65787582953</v>
+        <v>2968.757615189756</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.51400678449203</v>
+        <v>88.45694624188168</v>
       </c>
       <c r="G17">
-        <v>31.20785631627749</v>
+        <v>31.84277864862014</v>
       </c>
       <c r="H17">
-        <v>1513.404066933597</v>
+        <v>1463.138586623375</v>
       </c>
       <c r="I17">
-        <v>-928.8647161127421</v>
+        <v>-935.5514391575163</v>
       </c>
       <c r="J17">
-        <v>1267.523811474371</v>
+        <v>1255.857238683159</v>
       </c>
       <c r="K17">
-        <v>2862.860994187674</v>
+        <v>3088.326606583652</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.2688363009777</v>
+        <v>84.24591912557186</v>
       </c>
       <c r="G18">
-        <v>46.77394312445316</v>
+        <v>46.75133024802068</v>
       </c>
       <c r="H18">
-        <v>1444.455162159502</v>
+        <v>1565.511600498138</v>
       </c>
       <c r="I18">
-        <v>-927.4716793046214</v>
+        <v>-920.1169529143484</v>
       </c>
       <c r="J18">
-        <v>1221.172071627647</v>
+        <v>1211.487526137163</v>
       </c>
       <c r="K18">
-        <v>2893.444821902556</v>
+        <v>3180.349679885363</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.28692614752325</v>
+        <v>79.30767808135889</v>
       </c>
       <c r="G19">
-        <v>62.24907256994602</v>
+        <v>65.60098536363594</v>
       </c>
       <c r="H19">
-        <v>1555.881929820019</v>
+        <v>1494.471434802901</v>
       </c>
       <c r="I19">
-        <v>-886.0451669506703</v>
+        <v>-859.500035102997</v>
       </c>
       <c r="J19">
-        <v>1147.083741674571</v>
+        <v>1217.010084749269</v>
       </c>
       <c r="K19">
-        <v>3060.299777464582</v>
+        <v>3208.334700349149</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.32884976612061</v>
+        <v>71.77762615938205</v>
       </c>
       <c r="G20">
-        <v>84.08497195958968</v>
+        <v>84.10491254032996</v>
       </c>
       <c r="H20">
-        <v>1510.548070010164</v>
+        <v>1613.259563105331</v>
       </c>
       <c r="I20">
-        <v>-842.1843102553383</v>
+        <v>-803.9233864441519</v>
       </c>
       <c r="J20">
-        <v>1094.20538320314</v>
+        <v>1099.19142125685</v>
       </c>
       <c r="K20">
-        <v>3229.535307141914</v>
+        <v>3234.280336687214</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.91226342283389</v>
+        <v>71.67529080521666</v>
       </c>
       <c r="G21">
-        <v>99.71669523931787</v>
+        <v>94.71857070413409</v>
       </c>
       <c r="H21">
-        <v>1591.744586256277</v>
+        <v>1653.463971383025</v>
       </c>
       <c r="I21">
-        <v>-777.9734457696195</v>
+        <v>-789.2335707469476</v>
       </c>
       <c r="J21">
-        <v>1095.61416258883</v>
+        <v>1026.360189449415</v>
       </c>
       <c r="K21">
-        <v>3305.427966945275</v>
+        <v>3272.371253242005</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.29124595973119</v>
+        <v>68.3196081966543</v>
       </c>
       <c r="G22">
-        <v>115.3511764844056</v>
+        <v>114.7317327794121</v>
       </c>
       <c r="H22">
-        <v>1640.179554811335</v>
+        <v>1687.931627708466</v>
       </c>
       <c r="I22">
-        <v>-721.0606040245719</v>
+        <v>-720.1944585385427</v>
       </c>
       <c r="J22">
-        <v>1069.656865762445</v>
+        <v>1034.903670711512</v>
       </c>
       <c r="K22">
-        <v>3201.054153758601</v>
+        <v>3274.671682138247</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.98743668194489</v>
+        <v>67.44139217792497</v>
       </c>
       <c r="G23">
-        <v>125.4482735148695</v>
+        <v>134.4881893719491</v>
       </c>
       <c r="H23">
-        <v>1675.52873190548</v>
+        <v>1685.411696048606</v>
       </c>
       <c r="I23">
-        <v>-712.4035645551592</v>
+        <v>-723.7403543975661</v>
       </c>
       <c r="J23">
-        <v>1024.369904703987</v>
+        <v>936.8565622237825</v>
       </c>
       <c r="K23">
-        <v>3200.997856550608</v>
+        <v>3353.734860117556</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.09001617969978</v>
+        <v>64.68998499594049</v>
       </c>
       <c r="G24">
-        <v>143.6486988499792</v>
+        <v>151.5232180600129</v>
       </c>
       <c r="H24">
-        <v>1592.773467889122</v>
+        <v>1709.378496196477</v>
       </c>
       <c r="I24">
-        <v>-631.6383753138139</v>
+        <v>-657.3722344565473</v>
       </c>
       <c r="J24">
-        <v>930.7663739132557</v>
+        <v>950.0357185911051</v>
       </c>
       <c r="K24">
-        <v>3044.030443167936</v>
+        <v>3173.763648891929</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.71486965628829</v>
+        <v>60.55008835248588</v>
       </c>
       <c r="G25">
-        <v>159.9588644654361</v>
+        <v>156.8296997629683</v>
       </c>
       <c r="H25">
-        <v>1608.988609659809</v>
+        <v>1614.262704354407</v>
       </c>
       <c r="I25">
-        <v>-568.9490890077367</v>
+        <v>-626.8080155342572</v>
       </c>
       <c r="J25">
-        <v>867.034162353454</v>
+        <v>878.697412526389</v>
       </c>
       <c r="K25">
-        <v>3252.803811178336</v>
+        <v>3236.710608958484</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.49719604655434</v>
+        <v>57.32305173431884</v>
       </c>
       <c r="G26">
-        <v>179.4234840459187</v>
+        <v>171.6964657923123</v>
       </c>
       <c r="H26">
-        <v>1774.648420728731</v>
+        <v>1715.308370996178</v>
       </c>
       <c r="I26">
-        <v>-549.0922916082183</v>
+        <v>-549.6934016163909</v>
       </c>
       <c r="J26">
-        <v>803.1357378650016</v>
+        <v>817.0926773607532</v>
       </c>
       <c r="K26">
-        <v>3164.990269468922</v>
+        <v>3091.185128520644</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.28729340545712</v>
+        <v>59.98800184758613</v>
       </c>
       <c r="G27">
-        <v>204.4619167958189</v>
+        <v>193.4212685667085</v>
       </c>
       <c r="H27">
-        <v>1794.279513725845</v>
+        <v>1646.176448941518</v>
       </c>
       <c r="I27">
-        <v>-501.3015530341962</v>
+        <v>-474.9986805978433</v>
       </c>
       <c r="J27">
-        <v>797.090904818586</v>
+        <v>788.7036391583574</v>
       </c>
       <c r="K27">
-        <v>2957.550394769224</v>
+        <v>3041.545069498009</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.43494122956778</v>
+        <v>54.12833787367833</v>
       </c>
       <c r="G28">
-        <v>214.7800247361743</v>
+        <v>203.6778062224984</v>
       </c>
       <c r="H28">
-        <v>1808.700799273636</v>
+        <v>1689.846335872823</v>
       </c>
       <c r="I28">
-        <v>-427.1775454588792</v>
+        <v>-432.5201911757134</v>
       </c>
       <c r="J28">
-        <v>764.0430628984028</v>
+        <v>712.4137619347563</v>
       </c>
       <c r="K28">
-        <v>2950.140789778039</v>
+        <v>3048.117784298564</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.78724232823151</v>
+        <v>53.36949652138851</v>
       </c>
       <c r="G29">
-        <v>224.631230043095</v>
+        <v>227.6460781630168</v>
       </c>
       <c r="H29">
-        <v>1696.576083975402</v>
+        <v>1698.376238307277</v>
       </c>
       <c r="I29">
-        <v>-375.941614261548</v>
+        <v>-390.6409684739908</v>
       </c>
       <c r="J29">
-        <v>715.9443167836865</v>
+        <v>706.5145037495063</v>
       </c>
       <c r="K29">
-        <v>2764.401249796506</v>
+        <v>2860.007530765772</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.43573268015538</v>
+        <v>55.43051148703835</v>
       </c>
       <c r="G30">
-        <v>252.4103286602591</v>
+        <v>248.8472167245658</v>
       </c>
       <c r="H30">
-        <v>1692.560090086651</v>
+        <v>1742.198436957023</v>
       </c>
       <c r="I30">
-        <v>-313.4133163252766</v>
+        <v>-331.778811613128</v>
       </c>
       <c r="J30">
-        <v>608.880393381222</v>
+        <v>654.200820903609</v>
       </c>
       <c r="K30">
-        <v>2827.619618796267</v>
+        <v>2679.431557884122</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.99259922481901</v>
+        <v>50.18822983807653</v>
       </c>
       <c r="G31">
-        <v>272.2323573327899</v>
+        <v>266.4957969057842</v>
       </c>
       <c r="H31">
-        <v>1830.011631535913</v>
+        <v>1757.258258793882</v>
       </c>
       <c r="I31">
-        <v>-271.9542551191042</v>
+        <v>-261.918245036379</v>
       </c>
       <c r="J31">
-        <v>569.4038000041447</v>
+        <v>609.4464614793433</v>
       </c>
       <c r="K31">
-        <v>2531.728929225512</v>
+        <v>2783.915840688337</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>48.95547551788015</v>
+        <v>50.81142574338849</v>
       </c>
       <c r="G32">
-        <v>290.4313212807722</v>
+        <v>266.6431765147279</v>
       </c>
       <c r="H32">
-        <v>1733.304598689376</v>
+        <v>1750.224804852884</v>
       </c>
       <c r="I32">
-        <v>-203.8512076663638</v>
+        <v>-197.3527174749997</v>
       </c>
       <c r="J32">
-        <v>564.5549351644414</v>
+        <v>548.713413913449</v>
       </c>
       <c r="K32">
-        <v>2554.399545036842</v>
+        <v>2579.672643762739</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.24886611682207</v>
+        <v>48.1937151495549</v>
       </c>
       <c r="G33">
-        <v>287.177138077374</v>
+        <v>284.2058750053306</v>
       </c>
       <c r="H33">
-        <v>1819.682684091142</v>
+        <v>1796.634756527439</v>
       </c>
       <c r="I33">
-        <v>-141.6152947254567</v>
+        <v>-145.053456570418</v>
       </c>
       <c r="J33">
-        <v>494.0164687522084</v>
+        <v>503.6571887854979</v>
       </c>
       <c r="K33">
-        <v>2375.677457424115</v>
+        <v>2491.151294165388</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.95534362887882</v>
+        <v>48.60236427419586</v>
       </c>
       <c r="G34">
-        <v>314.8515538291082</v>
+        <v>328.1236944499784</v>
       </c>
       <c r="H34">
-        <v>1859.447185252418</v>
+        <v>1717.308850680518</v>
       </c>
       <c r="I34">
-        <v>-82.30872031989038</v>
+        <v>-82.84482231232677</v>
       </c>
       <c r="J34">
-        <v>433.9751565748083</v>
+        <v>441.9109311102929</v>
       </c>
       <c r="K34">
-        <v>2187.897309999676</v>
+        <v>2254.028660659143</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.92581292426861</v>
+        <v>49.8633538407186</v>
       </c>
       <c r="G35">
-        <v>342.4093259518637</v>
+        <v>322.0058811191708</v>
       </c>
       <c r="H35">
-        <v>1895.656971973854</v>
+        <v>1876.944566428954</v>
       </c>
       <c r="I35">
-        <v>-18.55392525760909</v>
+        <v>-18.45203231139416</v>
       </c>
       <c r="J35">
-        <v>393.4454947364105</v>
+        <v>387.4700938330573</v>
       </c>
       <c r="K35">
-        <v>2117.600117572696</v>
+        <v>1981.380050214563</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.52458061768324</v>
+        <v>46.20866957587529</v>
       </c>
       <c r="G36">
-        <v>333.2688670206157</v>
+        <v>354.3992804998325</v>
       </c>
       <c r="H36">
-        <v>1787.222036312709</v>
+        <v>1780.074659613003</v>
       </c>
       <c r="I36">
-        <v>48.54134502710735</v>
+        <v>46.40755142317482</v>
       </c>
       <c r="J36">
-        <v>351.5140204712096</v>
+        <v>346.774321571643</v>
       </c>
       <c r="K36">
-        <v>1786.860264458807</v>
+        <v>1746.955244297245</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.53969493907319</v>
+        <v>44.82392880152378</v>
       </c>
       <c r="G37">
-        <v>371.3897511700729</v>
+        <v>361.6772075788666</v>
       </c>
       <c r="H37">
-        <v>1749.977748429243</v>
+        <v>1858.524819003146</v>
       </c>
       <c r="I37">
-        <v>111.5860467803871</v>
+        <v>118.8728848856689</v>
       </c>
       <c r="J37">
-        <v>304.8293166162221</v>
+        <v>289.913816745357</v>
       </c>
       <c r="K37">
-        <v>1676.978127778355</v>
+        <v>1675.345869098943</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.61813370935035</v>
+        <v>44.50930552896948</v>
       </c>
       <c r="G38">
-        <v>388.7367841056134</v>
+        <v>365.8722519388067</v>
       </c>
       <c r="H38">
-        <v>1890.616281497126</v>
+        <v>1879.977148927382</v>
       </c>
       <c r="I38">
-        <v>175.3797079211328</v>
+        <v>187.2286685340974</v>
       </c>
       <c r="J38">
-        <v>236.4297657366989</v>
+        <v>239.6845628893783</v>
       </c>
       <c r="K38">
-        <v>1356.923341129291</v>
+        <v>1430.312280916391</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.64651988509669</v>
+        <v>43.12286091523272</v>
       </c>
       <c r="G39">
-        <v>383.1681091317173</v>
+        <v>384.717490010505</v>
       </c>
       <c r="H39">
-        <v>1853.934151265415</v>
+        <v>1778.267930853074</v>
       </c>
       <c r="I39">
-        <v>250.0937038733063</v>
+        <v>253.0950737965657</v>
       </c>
       <c r="J39">
-        <v>206.731594474362</v>
+        <v>205.7663701474198</v>
       </c>
       <c r="K39">
-        <v>1202.747149730809</v>
+        <v>1116.34554201426</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.37821490073346</v>
+        <v>43.35165453589383</v>
       </c>
       <c r="G40">
-        <v>399.4717391021019</v>
+        <v>393.9145167223766</v>
       </c>
       <c r="H40">
-        <v>1907.242351209486</v>
+        <v>1811.569211519795</v>
       </c>
       <c r="I40">
-        <v>341.3783692053713</v>
+        <v>327.2743750702527</v>
       </c>
       <c r="J40">
-        <v>148.643122249068</v>
+        <v>151.0800607992769</v>
       </c>
       <c r="K40">
-        <v>936.4600180371742</v>
+        <v>910.6400824650784</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.2852301330785</v>
+        <v>43.22736367415057</v>
       </c>
       <c r="G41">
-        <v>433.8650973454488</v>
+        <v>409.3009828719133</v>
       </c>
       <c r="H41">
-        <v>1787.860627736157</v>
+        <v>1807.472125672154</v>
       </c>
       <c r="I41">
-        <v>396.790225445486</v>
+        <v>394.1203270587433</v>
       </c>
       <c r="J41">
-        <v>107.4086054159206</v>
+        <v>105.8281896130824</v>
       </c>
       <c r="K41">
-        <v>645.5759862389217</v>
+        <v>597.9244820883366</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.65823034312899</v>
+        <v>41.77996073882234</v>
       </c>
       <c r="G42">
-        <v>422.9334723142248</v>
+        <v>430.4180439310177</v>
       </c>
       <c r="H42">
-        <v>1806.2983217853</v>
+        <v>1844.834108283423</v>
       </c>
       <c r="I42">
-        <v>460.2290087294469</v>
+        <v>499.937777808008</v>
       </c>
       <c r="J42">
-        <v>56.29564889913836</v>
+        <v>51.9380203111709</v>
       </c>
       <c r="K42">
-        <v>333.8202661615833</v>
+        <v>350.421080851707</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.19403913238625</v>
+        <v>42.73019343408701</v>
       </c>
       <c r="G43">
-        <v>446.8084491241572</v>
+        <v>465.7780764065695</v>
       </c>
       <c r="H43">
-        <v>1922.254825141539</v>
+        <v>1994.265624087684</v>
       </c>
       <c r="I43">
-        <v>575.8933628336739</v>
+        <v>556.0564412857152</v>
       </c>
       <c r="J43">
-        <v>5.179908403850816</v>
+        <v>5.524341585766844</v>
       </c>
       <c r="K43">
-        <v>33.95601215537572</v>
+        <v>33.35925346429374</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.74824525631853</v>
+        <v>42.02060647060104</v>
       </c>
       <c r="G44">
-        <v>480.6359114224038</v>
+        <v>477.3320648468749</v>
       </c>
       <c r="H44">
-        <v>1936.380763498688</v>
+        <v>1872.646056332317</v>
       </c>
       <c r="I44">
-        <v>631.5751054988793</v>
+        <v>664.1205574602501</v>
       </c>
       <c r="J44">
-        <v>-42.34564979643372</v>
+        <v>-43.97820319637333</v>
       </c>
       <c r="K44">
-        <v>-274.9714231694666</v>
+        <v>-281.457392537303</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.54199111538988</v>
+        <v>42.2271292765219</v>
       </c>
       <c r="G45">
-        <v>497.3029670594997</v>
+        <v>500.6872396988286</v>
       </c>
       <c r="H45">
-        <v>1822.60548801142</v>
+        <v>2005.026436959005</v>
       </c>
       <c r="I45">
-        <v>728.2511897028305</v>
+        <v>744.366156207734</v>
       </c>
       <c r="J45">
-        <v>-95.09143052599931</v>
+        <v>-94.29330237350348</v>
       </c>
       <c r="K45">
-        <v>-610.4612569263519</v>
+        <v>-598.6712980132422</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.97081117208354</v>
+        <v>38.90787103667523</v>
       </c>
       <c r="G46">
-        <v>495.4918925583854</v>
+        <v>486.3348236512976</v>
       </c>
       <c r="H46">
-        <v>1848.769112192197</v>
+        <v>1835.978824516519</v>
       </c>
       <c r="I46">
-        <v>774.4310169806712</v>
+        <v>844.5843777471814</v>
       </c>
       <c r="J46">
-        <v>-141.4415441979438</v>
+        <v>-138.4500071923143</v>
       </c>
       <c r="K46">
-        <v>-968.3721177755874</v>
+        <v>-946.5120823110274</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.06104023474416</v>
+        <v>40.49844311179726</v>
       </c>
       <c r="G47">
-        <v>521.7868454721138</v>
+        <v>519.5691825727988</v>
       </c>
       <c r="H47">
-        <v>1912.573320824585</v>
+        <v>1993.582441340851</v>
       </c>
       <c r="I47">
-        <v>885.4296985747098</v>
+        <v>893.8182451747608</v>
       </c>
       <c r="J47">
-        <v>-195.7387245831918</v>
+        <v>-183.02397159037</v>
       </c>
       <c r="K47">
-        <v>-1316.034608636762</v>
+        <v>-1322.71130181242</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.82201070286157</v>
+        <v>41.23907700782984</v>
       </c>
       <c r="G48">
-        <v>537.9300865734366</v>
+        <v>552.6547829658545</v>
       </c>
       <c r="H48">
-        <v>1913.311687909538</v>
+        <v>1986.63931936697</v>
       </c>
       <c r="I48">
-        <v>1007.64186757504</v>
+        <v>994.3052381600262</v>
       </c>
       <c r="J48">
-        <v>-249.7302660456184</v>
+        <v>-245.6070515033642</v>
       </c>
       <c r="K48">
-        <v>-1769.997101839224</v>
+        <v>-1660.049177667237</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.54589286850892</v>
+        <v>37.91153293087796</v>
       </c>
       <c r="G49">
-        <v>578.2928708977332</v>
+        <v>554.0002339744785</v>
       </c>
       <c r="H49">
-        <v>1853.096015115911</v>
+        <v>1988.674258408865</v>
       </c>
       <c r="I49">
-        <v>1097.382625856324</v>
+        <v>1091.982420892306</v>
       </c>
       <c r="J49">
-        <v>-300.6098931010036</v>
+        <v>-282.4279078190995</v>
       </c>
       <c r="K49">
-        <v>-2017.817051411433</v>
+        <v>-2104.656798020828</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.64147720116264</v>
+        <v>39.15135395436362</v>
       </c>
       <c r="G50">
-        <v>565.4785810697446</v>
+        <v>562.8589739197637</v>
       </c>
       <c r="H50">
-        <v>1998.952004620223</v>
+        <v>1943.413466470961</v>
       </c>
       <c r="I50">
-        <v>1192.746925086174</v>
+        <v>1120.217191338828</v>
       </c>
       <c r="J50">
-        <v>-343.7308220192585</v>
+        <v>-350.6826462299481</v>
       </c>
       <c r="K50">
-        <v>-2587.16560503863</v>
+        <v>-2534.02360177788</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.37271967599935</v>
+        <v>38.5446384926538</v>
       </c>
       <c r="G51">
-        <v>573.3321205822831</v>
+        <v>576.7245803230163</v>
       </c>
       <c r="H51">
-        <v>1897.576586441752</v>
+        <v>2052.97326781098</v>
       </c>
       <c r="I51">
-        <v>1290.898830559046</v>
+        <v>1216.032219289614</v>
       </c>
       <c r="J51">
-        <v>-368.6985472763816</v>
+        <v>-372.823229753831</v>
       </c>
       <c r="K51">
-        <v>-2839.349935674625</v>
+        <v>-2816.160335755565</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.59105480144943</v>
+        <v>39.24582196289266</v>
       </c>
       <c r="G52">
-        <v>630.64479334257</v>
+        <v>581.2478379365601</v>
       </c>
       <c r="H52">
-        <v>1945.603596821369</v>
+        <v>1942.806997917844</v>
       </c>
       <c r="I52">
-        <v>1303.975743935665</v>
+        <v>1412.127102518281</v>
       </c>
       <c r="J52">
-        <v>-414.2189545177498</v>
+        <v>-414.2650506136922</v>
       </c>
       <c r="K52">
-        <v>-3286.035283323245</v>
+        <v>-3230.134418185976</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.43921176722846</v>
+        <v>35.83026081444093</v>
       </c>
       <c r="G53">
-        <v>599.0284429647115</v>
+        <v>604.269004977197</v>
       </c>
       <c r="H53">
-        <v>1909.122123742326</v>
+        <v>2038.194160697517</v>
       </c>
       <c r="I53">
-        <v>1414.01621344436</v>
+        <v>1525.393722684116</v>
       </c>
       <c r="J53">
-        <v>-458.5342764214989</v>
+        <v>-483.6764836398675</v>
       </c>
       <c r="K53">
-        <v>-3961.438310470516</v>
+        <v>-3760.537049647296</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.05097861760743</v>
+        <v>37.05007694114728</v>
       </c>
       <c r="G54">
-        <v>631.9531752213414</v>
+        <v>624.493804107344</v>
       </c>
       <c r="H54">
-        <v>1933.87990050783</v>
+        <v>2055.041529139119</v>
       </c>
       <c r="I54">
-        <v>1489.484043486833</v>
+        <v>1611.005031138426</v>
       </c>
       <c r="J54">
-        <v>-540.7464212519268</v>
+        <v>-537.2177565990438</v>
       </c>
       <c r="K54">
-        <v>-4237.503435777267</v>
+        <v>-4181.543892409696</v>
       </c>
     </row>
   </sheetData>
